--- a/config_debug/xiaoxiaole_xy_defen_cfg.xlsx
+++ b/config_debug/xiaoxiaole_xy_defen_cfg.xlsx
@@ -5,26 +5,24 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="597" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="597" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="yazhu|消消乐押注" sheetId="6" r:id="rId1"/>
     <sheet name="dangci|档次" sheetId="7" r:id="rId2"/>
     <sheet name="auto|自动押注" sheetId="8" r:id="rId3"/>
-    <sheet name="zp|转盘" sheetId="10" r:id="rId4"/>
-    <sheet name="jd|金蛋进度" sheetId="11" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="12" r:id="rId6"/>
+    <sheet name="task|进度任务" sheetId="12" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
   <si>
     <t>line|行号</t>
   </si>
@@ -47,84 +45,6 @@
     <t>|MIN&lt;= x &lt;MAX</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>award_type</t>
-  </si>
-  <si>
-    <t>rate</t>
-  </si>
-  <si>
-    <t>scale|1为标准</t>
-  </si>
-  <si>
-    <t>name|名字</t>
-  </si>
-  <si>
-    <t>image|图标</t>
-  </si>
-  <si>
-    <t>jing_bi</t>
-  </si>
-  <si>
-    <t>鲸币</t>
-  </si>
-  <si>
-    <t>pay_icon_gold1</t>
-  </si>
-  <si>
-    <t>sky_girl</t>
-  </si>
-  <si>
-    <t>4次免费大奖</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>sxxl_icon_13</t>
-    </r>
-  </si>
-  <si>
-    <t>pay_icon_gold2</t>
-  </si>
-  <si>
-    <t>8次免费大奖</t>
-  </si>
-  <si>
-    <t>csxxl_icon_12</t>
-  </si>
-  <si>
-    <t>pay_icon_gold3</t>
-  </si>
-  <si>
-    <t>16次免费大奖</t>
-  </si>
-  <si>
-    <t>csxxl_icon_11</t>
-  </si>
-  <si>
-    <t>jd|可以开奖的金蛋个数</t>
-  </si>
-  <si>
     <t>progress|进度</t>
   </si>
   <si>
@@ -141,7 +61,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,28 +85,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -207,7 +105,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -218,12 +116,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF8DB4E2"/>
         <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -266,10 +158,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -287,30 +179,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -604,9 +472,9 @@
       <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="27">
+    <row r="1" spans="1:4" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -616,11 +484,11 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -631,7 +499,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -642,7 +510,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -653,7 +521,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -664,7 +532,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -675,7 +543,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -686,7 +554,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -697,7 +565,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -708,7 +576,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -719,7 +587,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -730,7 +598,7 @@
         <v>240000</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -741,7 +609,7 @@
         <v>480000</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -755,7 +623,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -769,86 +637,86 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B30" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -862,9 +730,9 @@
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="27">
+    <row r="1" spans="1:4" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -878,7 +746,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -892,7 +760,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -906,7 +774,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -920,7 +788,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -934,53 +802,53 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -994,9 +862,9 @@
       <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="27">
+    <row r="1" spans="1:5" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1009,11 +877,11 @@
       <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1027,7 +895,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1041,7 +909,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1055,7 +923,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1069,109 +937,109 @@
         <v>240000</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="14">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="8">
         <v>5</v>
       </c>
       <c r="C6" s="5">
         <v>240000</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="8">
         <v>480000</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="14">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="8">
         <v>6</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="8">
         <v>480000</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="8">
         <v>900000</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="14">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="8">
         <v>7</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="8">
         <v>900000</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="8">
         <v>1800000</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="14">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="8">
         <v>8</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="8">
         <v>1800000</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="8">
         <v>3600000</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="14">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="8">
         <v>9</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="8">
         <v>3600000</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="8">
         <v>7200000</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="14">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="8">
         <v>10</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="8">
         <v>7200000</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="8">
         <v>14400000</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="14">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="8">
         <v>11</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="8">
         <v>14400000</v>
       </c>
       <c r="D12">
         <v>28800000</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="14">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="8">
         <v>12</v>
       </c>
       <c r="C13">
@@ -1181,11 +1049,11 @@
         <v>57600000</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="14">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="8">
         <v>13</v>
       </c>
       <c r="C14">
@@ -1193,7 +1061,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -1201,741 +1069,98 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G39"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="2" max="2" width="3.875" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="4.625" customWidth="1"/>
-    <col min="5" max="5" width="12.625" customWidth="1"/>
-    <col min="6" max="6" width="14.625" customWidth="1"/>
-    <col min="7" max="7" width="16.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="27">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4">
-        <v>1</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="11">
-        <v>10</v>
-      </c>
-      <c r="E2" s="12">
-        <v>1</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4">
-        <v>2</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="11">
-        <v>20</v>
-      </c>
-      <c r="E3" s="12">
-        <v>1</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="14">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4">
-        <v>6</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="11">
-        <v>3</v>
-      </c>
-      <c r="E4" s="12">
-        <v>1.2</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4">
-        <v>3</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="11">
-        <v>40</v>
-      </c>
-      <c r="E5" s="12">
-        <v>1</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4">
-        <v>4</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="11">
-        <v>60</v>
-      </c>
-      <c r="E6" s="12">
-        <v>1</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="14">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4">
-        <v>7</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="11">
-        <v>2</v>
-      </c>
-      <c r="E7" s="12">
-        <v>1.3</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4">
-        <v>5</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="11">
-        <v>150</v>
-      </c>
-      <c r="E8" s="12">
-        <v>1</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4">
-        <v>8</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="11">
-        <v>1</v>
-      </c>
-      <c r="E9" s="12">
-        <v>1.4</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="14">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4">
-        <v>9</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="11">
-        <v>10</v>
-      </c>
-      <c r="E10" s="12">
-        <v>1</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4">
-        <v>10</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="11">
-        <v>20</v>
-      </c>
-      <c r="E11" s="12">
-        <v>1</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="4">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4">
-        <v>14</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="11">
-        <v>3</v>
-      </c>
-      <c r="E12" s="12">
-        <v>1.2</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="14">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4">
-        <v>11</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="11">
-        <v>40</v>
-      </c>
-      <c r="E13" s="12">
-        <v>1</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="4">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4">
-        <v>12</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="11">
-        <v>60</v>
-      </c>
-      <c r="E14" s="12">
-        <v>1</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="4">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4">
-        <v>15</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="11">
-        <v>2</v>
-      </c>
-      <c r="E15" s="12">
-        <v>1.3</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="14">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4">
-        <v>13</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="11">
-        <v>150</v>
-      </c>
-      <c r="E16" s="12">
-        <v>1</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="4">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4">
-        <v>16</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="11">
-        <v>1</v>
-      </c>
-      <c r="E17" s="12">
-        <v>1.4</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-    </row>
-    <row r="37" spans="5:5">
-      <c r="E37" s="12"/>
-    </row>
-    <row r="38" spans="5:5">
-      <c r="E38" s="12"/>
-    </row>
-    <row r="39" spans="5:5">
-      <c r="E39" s="12"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="3" max="3" width="9.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="40.5">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5">
-        <v>3</v>
-      </c>
-      <c r="C4" s="4">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5">
-        <v>4</v>
-      </c>
-      <c r="C5" s="4">
-        <v>32000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5">
-        <v>5</v>
-      </c>
-      <c r="C6" s="4">
-        <v>64000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5">
-        <v>6</v>
-      </c>
-      <c r="C7" s="4">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5">
-        <v>7</v>
-      </c>
-      <c r="C8" s="4">
-        <v>240000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5">
-        <v>8</v>
-      </c>
-      <c r="C9" s="4">
-        <v>480000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5">
-        <v>9</v>
-      </c>
-      <c r="C10" s="4">
-        <v>960000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5">
-        <v>10</v>
-      </c>
-      <c r="C11" s="4">
-        <v>1920000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="4">
-        <v>11</v>
-      </c>
-      <c r="B12" s="5">
-        <v>11</v>
-      </c>
-      <c r="C12" s="4">
-        <v>3840000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="4">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5">
-        <v>12</v>
-      </c>
-      <c r="C13" s="4">
-        <v>7680000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="4">
-        <v>13</v>
-      </c>
-      <c r="B14" s="5">
-        <v>13</v>
-      </c>
-      <c r="C14" s="4">
-        <v>15360000</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A7"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.875" customWidth="1"/>
     <col min="2" max="2" width="14.5" customWidth="1"/>
     <col min="3" max="3" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27">
+    <row r="1" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>800000</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2">
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2500000</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>12500000</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>25000000</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>75000000</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>230000000</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2">
         <v>100</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/config_debug/xiaoxiaole_xy_defen_cfg.xlsx
+++ b/config_debug/xiaoxiaole_xy_defen_cfg.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="597"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="597" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="yazhu|消消乐押注" sheetId="6" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="auto|自动押注" sheetId="8" r:id="rId3"/>
     <sheet name="task|进度任务" sheetId="12" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -475,7 +475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5:D13"/>
     </sheetView>
   </sheetViews>
@@ -1043,8 +1043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1070,7 +1070,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>800000</v>
+        <v>8000000</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>10</v>
@@ -1084,7 +1084,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2500000</v>
+        <v>25000000</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>10</v>
@@ -1098,7 +1098,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>12500000</v>
+        <v>125000000</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>10</v>
@@ -1112,7 +1112,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>25000000</v>
+        <v>250000000</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>10</v>
@@ -1126,7 +1126,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>75000000</v>
+        <v>750000000</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>10</v>
@@ -1140,7 +1140,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>230000000</v>
+        <v>2300000000</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>10</v>
